--- a/修士論文/master_evaluation.xlsx
+++ b/修士論文/master_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\Latex\修士論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F83CA2-BD09-4378-BDFA-6029B8163300}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9BF9E1-037B-4486-B00E-4AA8D6E213C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="3585" windowWidth="29040" windowHeight="12735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGO vs LSGO" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="RCS" sheetId="4" r:id="rId4"/>
     <sheet name="LSGO vs shadowing" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>PDR</t>
     <phoneticPr fontId="2"/>
@@ -108,6 +111,24 @@
   <si>
     <t>Overhead</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO(10)</t>
+  </si>
+  <si>
+    <t>LSGO(10)</t>
+  </si>
+  <si>
+    <t>SIGO(20)</t>
+  </si>
+  <si>
+    <t>LSGO(20)</t>
+  </si>
+  <si>
+    <t>SIGO(30)</t>
+  </si>
+  <si>
+    <t>LSGO(30)</t>
   </si>
 </sst>
 </file>
@@ -180,6 +201,3064 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10535528631465235"/>
+          <c:y val="2.9729721715759203E-2"/>
+          <c:w val="0.87675189622462879"/>
+          <c:h val="0.80118002248609455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$26:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.04234006734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.869546657046602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.692179733846299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$27:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.510357747159702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.780992667794699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.220264281685601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$28:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38.578535353535301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.798917748917699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.302396985730301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.293570219966099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0993956973652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.551573201192401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.327441077441001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.048953823953799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.174887766554399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$N$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.917089678510997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.3887781000725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1048847796309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441313488"/>
+        <c:axId val="428493760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441313488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428493760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428493760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>オーバーヘッド</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2554624596363752E-3"/>
+              <c:y val="0.35415531526992"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441313488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14049322825561023"/>
+          <c:y val="4.0557149534390394E-2"/>
+          <c:w val="0.83377578233166971"/>
+          <c:h val="0.72854017905296087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSGO vs shadowing'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadowingあり</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$N$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$N$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.820264281685603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.820264281685599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.220264281685601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0522-4C05-A748-CE9C6995A426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSGO vs shadowing'!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadowingなし</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$N$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$N$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.0202642816856002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1202642816855999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2202642816855995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0522-4C05-A748-CE9C6995A426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="162188815"/>
+        <c:axId val="162182991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="162188815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162182991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162182991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>オーバーヘッド</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162188815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13966047715333837"/>
+          <c:y val="2.5639250066831785E-2"/>
+          <c:w val="0.85878224026425054"/>
+          <c:h val="0.79600909556462396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.56403846801346E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8083191690716599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9729760529902199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4925469929900902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8694854667230599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95763923495286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2352590151515101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8916771055796001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.98704469877344E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.43845462774957E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8371260611554198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9459409026267001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2800104461279402E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7562100012025002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0352029290925099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4144564805414499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7608062666183202E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9579379826363699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D437-445C-B660-C887B6D78A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441313488"/>
+        <c:axId val="428493760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441313488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" baseline="0"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428493760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428493760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.2000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>エンドツーエンド遅延</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.7666198465741587E-3"/>
+              <c:y val="0.28527430019872391"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441313488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1068789760595676"/>
+          <c:y val="2.9729721715759203E-2"/>
+          <c:w val="0.8752282626377883"/>
+          <c:h val="0.80820633238173001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.909090909090796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.757575757575694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.717171717171695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.416243654822303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.121827411167502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.949494949494898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.010101010101003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.363636363636289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23.350253807106501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.451776649746201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.664974619289296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.292929292929301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.151515151515099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.868686868686808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.639593908629401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.624365482233401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.192893401015198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E056-43BB-AF45-13029F460182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441313488"/>
+        <c:axId val="428493760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441313488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48144634946529324"/>
+              <c:y val="0.88414353433121107"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428493760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428493760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+                  <a:t>パケット到達率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1366225556199643E-2"/>
+              <c:y val="0.30310956733667399"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441313488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -575,7 +3654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -968,7 +4047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1349,7 +4428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1731,7 +4810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2243,7 +5322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2757,509 +5836,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14049322825561023"/>
-          <c:y val="4.0557149534390394E-2"/>
-          <c:w val="0.83377578233166971"/>
-          <c:h val="0.72854017905296087"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'LSGO vs shadowing'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shadowingあり</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$N$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$N$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32.820264281685603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.820264281685599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.220264281685601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0522-4C05-A748-CE9C6995A426}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'LSGO vs shadowing'!$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shadowingなし</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$N$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$N$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.0202642816856002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1202642816855999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2202642816855995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0522-4C05-A748-CE9C6995A426}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162188815"/>
-        <c:axId val="162182991"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162188815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>ノード数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162182991"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="162182991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="40"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>オーバーヘッド</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162188815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3539,8 +6156,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4042,8 +6739,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4545,8 +7242,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5048,8 +7745,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5551,8 +8248,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6054,8 +8751,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6557,8 +9254,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7060,7 +9757,1635 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584538</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18376</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF9D8E1-BD60-498E-923D-A22A5EBD049B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208870</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504143</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C12EEF-B912-45DF-93D2-10697D32EDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>208869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>458560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="グラフ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336EF90D-89F7-4164-8019-03236156443E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7209,7 +11534,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7285,16 +11610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7320,6 +11645,241 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="D25">
+            <v>200</v>
+          </cell>
+          <cell r="E25">
+            <v>300</v>
+          </cell>
+          <cell r="F25">
+            <v>400</v>
+          </cell>
+          <cell r="I25">
+            <v>200</v>
+          </cell>
+          <cell r="J25">
+            <v>300</v>
+          </cell>
+          <cell r="K25">
+            <v>400</v>
+          </cell>
+          <cell r="N25">
+            <v>200</v>
+          </cell>
+          <cell r="O25">
+            <v>300</v>
+          </cell>
+          <cell r="P25">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>SIGO(10)</v>
+          </cell>
+          <cell r="D26">
+            <v>30.909090909090796</v>
+          </cell>
+          <cell r="E26">
+            <v>55.757575757575694</v>
+          </cell>
+          <cell r="F26">
+            <v>81.717171717171695</v>
+          </cell>
+          <cell r="I26">
+            <v>2.56403846801346E-2</v>
+          </cell>
+          <cell r="J26">
+            <v>2.8083191690716599E-2</v>
+          </cell>
+          <cell r="K26">
+            <v>2.9729760529902199E-2</v>
+          </cell>
+          <cell r="N26">
+            <v>34.04234006734</v>
+          </cell>
+          <cell r="O26">
+            <v>24.869546657046602</v>
+          </cell>
+          <cell r="P26">
+            <v>19.692179733846299</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>LSGO(10)</v>
+          </cell>
+          <cell r="D27">
+            <v>30</v>
+          </cell>
+          <cell r="E27">
+            <v>54.416243654822303</v>
+          </cell>
+          <cell r="F27">
+            <v>78.121827411167502</v>
+          </cell>
+          <cell r="I27">
+            <v>2.4925469929900902E-2</v>
+          </cell>
+          <cell r="J27">
+            <v>2.8694854667230599E-2</v>
+          </cell>
+          <cell r="K27">
+            <v>2.95763923495286E-2</v>
+          </cell>
+          <cell r="N27">
+            <v>32.510357747159702</v>
+          </cell>
+          <cell r="O27">
+            <v>24.780992667794699</v>
+          </cell>
+          <cell r="P27">
+            <v>19.220264281685601</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>SIGO(20)</v>
+          </cell>
+          <cell r="D28">
+            <v>24.949494949494898</v>
+          </cell>
+          <cell r="E28">
+            <v>46.010101010101003</v>
+          </cell>
+          <cell r="F28">
+            <v>71.363636363636289</v>
+          </cell>
+          <cell r="I28">
+            <v>2.2352590151515101E-2</v>
+          </cell>
+          <cell r="J28">
+            <v>2.8916771055796001E-2</v>
+          </cell>
+          <cell r="K28">
+            <v>2.98704469877344E-2</v>
+          </cell>
+          <cell r="N28">
+            <v>38.578535353535301</v>
+          </cell>
+          <cell r="O28">
+            <v>27.798917748917699</v>
+          </cell>
+          <cell r="P28">
+            <v>21.302396985730301</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>LSGO(20)</v>
+          </cell>
+          <cell r="D29">
+            <v>23.350253807106501</v>
+          </cell>
+          <cell r="E29">
+            <v>43.451776649746201</v>
+          </cell>
+          <cell r="F29">
+            <v>67.664974619289296</v>
+          </cell>
+          <cell r="I29">
+            <v>2.43845462774957E-2</v>
+          </cell>
+          <cell r="J29">
+            <v>2.8371260611554198E-2</v>
+          </cell>
+          <cell r="K29">
+            <v>2.9459409026267001E-2</v>
+          </cell>
+          <cell r="N29">
+            <v>40.293570219966099</v>
+          </cell>
+          <cell r="O29">
+            <v>30.0993956973652</v>
+          </cell>
+          <cell r="P29">
+            <v>21.551573201192401</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>SIGO(30)</v>
+          </cell>
+          <cell r="D30">
+            <v>24.292929292929301</v>
+          </cell>
+          <cell r="E30">
+            <v>45.151515151515099</v>
+          </cell>
+          <cell r="F30">
+            <v>71.868686868686808</v>
+          </cell>
+          <cell r="I30">
+            <v>2.2800104461279402E-2</v>
+          </cell>
+          <cell r="J30">
+            <v>2.7562100012025002E-2</v>
+          </cell>
+          <cell r="K30">
+            <v>3.0352029290925099E-2</v>
+          </cell>
+          <cell r="N30">
+            <v>39.327441077441001</v>
+          </cell>
+          <cell r="O30">
+            <v>28.048953823953799</v>
+          </cell>
+          <cell r="P30">
+            <v>21.174887766554399</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>LSGO(30)</v>
+          </cell>
+          <cell r="D31">
+            <v>22.639593908629401</v>
+          </cell>
+          <cell r="E31">
+            <v>41.624365482233401</v>
+          </cell>
+          <cell r="F31">
+            <v>66.192893401015198</v>
+          </cell>
+          <cell r="I31">
+            <v>2.4144564805414499E-2</v>
+          </cell>
+          <cell r="J31">
+            <v>2.7608062666183202E-2</v>
+          </cell>
+          <cell r="K31">
+            <v>2.9579379826363699E-2</v>
+          </cell>
+          <cell r="N31">
+            <v>41.917089678510997</v>
+          </cell>
+          <cell r="O31">
+            <v>31.3887781000725</v>
+          </cell>
+          <cell r="P31">
+            <v>22.1048847796309</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9347,19 +13907,793 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="D5:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="4:17">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17">
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>30.909090909090796</v>
+      </c>
+      <c r="F7">
+        <v>55.757575757575694</v>
+      </c>
+      <c r="G7">
+        <v>81.717171717171695</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>2.56403846801346E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.8083191690716599E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.9729760529902199E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>34.04234006734</v>
+      </c>
+      <c r="P7">
+        <v>24.869546657046602</v>
+      </c>
+      <c r="Q7">
+        <v>19.692179733846299</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>54.416243654822303</v>
+      </c>
+      <c r="G8">
+        <v>78.121827411167502</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>2.4925469929900902E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.8694854667230599E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.95763923495286E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>32.510357747159702</v>
+      </c>
+      <c r="P8">
+        <v>24.780992667794699</v>
+      </c>
+      <c r="Q8">
+        <v>19.220264281685601</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>24.949494949494898</v>
+      </c>
+      <c r="F9">
+        <v>46.010101010101003</v>
+      </c>
+      <c r="G9">
+        <v>71.363636363636289</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>2.2352590151515101E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.8916771055796001E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.98704469877344E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>38.578535353535301</v>
+      </c>
+      <c r="P9">
+        <v>27.798917748917699</v>
+      </c>
+      <c r="Q9">
+        <v>21.302396985730301</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>23.350253807106501</v>
+      </c>
+      <c r="F10">
+        <v>43.451776649746201</v>
+      </c>
+      <c r="G10">
+        <v>67.664974619289296</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>2.43845462774957E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.8371260611554198E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.9459409026267001E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>40.293570219966099</v>
+      </c>
+      <c r="P10">
+        <v>30.0993956973652</v>
+      </c>
+      <c r="Q10">
+        <v>21.551573201192401</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>24.292929292929301</v>
+      </c>
+      <c r="F11">
+        <v>45.151515151515099</v>
+      </c>
+      <c r="G11">
+        <v>71.868686868686808</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>2.2800104461279402E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.7562100012025002E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.0352029290925099E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>39.327441077441001</v>
+      </c>
+      <c r="P11">
+        <v>28.048953823953799</v>
+      </c>
+      <c r="Q11">
+        <v>21.174887766554399</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>22.639593908629401</v>
+      </c>
+      <c r="F12">
+        <v>41.624365482233401</v>
+      </c>
+      <c r="G12">
+        <v>66.192893401015198</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>2.4144564805414499E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.7608062666183202E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.9579379826363699E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>41.917089678510997</v>
+      </c>
+      <c r="P12">
+        <v>31.3887781000725</v>
+      </c>
+      <c r="Q12">
+        <v>22.1048847796309</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9367,7 +14701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3121880C-5E42-4C45-852C-C2090C83CA7B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
@@ -9551,7 +14887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02DE1FB-9480-4B0B-B737-CBC9E45D46C4}">
   <dimension ref="C1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>

--- a/修士論文/master_evaluation.xlsx
+++ b/修士論文/master_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\Latex\修士論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9BF9E1-037B-4486-B00E-4AA8D6E213C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67F055-79D4-4319-9CDE-383F6B596B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-5480" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGO vs LSGO" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>PDR</t>
     <phoneticPr fontId="2"/>
@@ -130,6 +130,54 @@
   <si>
     <t>LSGO(30)</t>
   </si>
+  <si>
+    <t>SIGO + ORS(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO + JBR(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO + ORS(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO + JBR(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO + ORS(30)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIGO + JBR(30)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ORS - SIGO(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ORS - SIGO(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ORS - SIGO(30)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JBR - SIGO(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JBR - SIGO(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JBR - SIGO(30)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -174,15 +222,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1040,6 +1269,520 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14049322825561023"/>
+          <c:y val="4.0557149534390394E-2"/>
+          <c:w val="0.83377578233166971"/>
+          <c:h val="0.72854017905296087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSGO vs shadowing'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadowingあり</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$I$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$I$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.55763923495286E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8776392349528598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95763923495286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0522-4C05-A748-CE9C6995A426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSGO vs shadowing'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadowingなし</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$I$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSGO vs shadowing'!$I$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0576392349528599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4576392349528599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6576392349528601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0522-4C05-A748-CE9C6995A426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="162188815"/>
+        <c:axId val="162182991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="162188815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162182991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162182991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>エンドツーエンド遅延</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162188815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3275,6 +4018,844 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10535528631465235"/>
+          <c:y val="2.9729721715759203E-2"/>
+          <c:w val="0.87675189622462879"/>
+          <c:h val="0.74300496253275949"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + ORS(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.6938775510203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.244897959183703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.061224489795904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + JBR(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.7959183673469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.653061224489704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.122448979591795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + ORS(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.224489795918299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.673469387755098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.265306122448905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + JBR(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.775510204081598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.836734693877496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.183673469387699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + ORS(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.122448979591802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.224489795918302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.040816326530603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recovery strategy'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + JBR(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recovery strategy'!$D$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.653061224489701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.183673469387699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.755102040816304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9BB-48BD-ACE0-98732C9B2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441313488"/>
+        <c:axId val="428493760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441313488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428493760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428493760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>パケット到達率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.4283075726645273E-3"/>
+              <c:y val="0.32414967639177533"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441313488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3654,7 +5235,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4047,7 +5628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4428,7 +6009,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4810,7 +6391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5322,520 +6903,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14049322825561023"/>
-          <c:y val="4.0557149534390394E-2"/>
-          <c:w val="0.83377578233166971"/>
-          <c:h val="0.72854017905296087"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'LSGO vs shadowing'!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shadowingあり</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$I$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$I$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.55763923495286E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8776392349528598E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.95763923495286E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0522-4C05-A748-CE9C6995A426}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'LSGO vs shadowing'!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shadowingなし</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$I$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'LSGO vs shadowing'!$I$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.0576392349528599E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4576392349528599E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6576392349528601E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0522-4C05-A748-CE9C6995A426}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162188815"/>
-        <c:axId val="162182991"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162188815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>ノード数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162182991"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="162182991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="2.0000000000000004E-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>エンドツーエンド遅延</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162188815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5877,6 +6944,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7242,7 +8349,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7745,7 +8852,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8248,8 +9355,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8751,8 +9858,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9254,7 +10361,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9757,7 +10864,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10260,8 +11367,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11386,6 +12996,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0C90A6-A409-45EB-BFE3-12F2E8A41FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11534,7 +13185,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12395,6 +14046,258 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
@@ -14415,8 +16318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -14699,16 +16602,877 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3121880C-5E42-4C45-852C-C2090C83CA7B}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" ht="18" thickBot="1">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>300</v>
+      </c>
+      <c r="F3" s="3">
+        <v>400</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3">
+        <v>300</v>
+      </c>
+      <c r="K3" s="3">
+        <v>400</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>200</v>
+      </c>
+      <c r="O3" s="3">
+        <v>300</v>
+      </c>
+      <c r="P3" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6">
+        <v>34.6938775510203</v>
+      </c>
+      <c r="E4" s="6">
+        <v>57.244897959183703</v>
+      </c>
+      <c r="F4" s="6">
+        <v>83.061224489795904</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.5196025728862901E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.91435721614836E-2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3.0136873028020698E-2</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="6">
+        <v>36.720456754130197</v>
+      </c>
+      <c r="O4" s="6">
+        <v>27.771084386135399</v>
+      </c>
+      <c r="P4" s="6">
+        <v>20.071448817622201</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6">
+        <v>24.7959183673469</v>
+      </c>
+      <c r="E5" s="6">
+        <v>47.653061224489704</v>
+      </c>
+      <c r="F5" s="6">
+        <v>76.122448979591795</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.3575831292516999E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.91170277696793E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3.0521977680595998E-2</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="6">
+        <v>44.819217687074797</v>
+      </c>
+      <c r="O5" s="6">
+        <v>30.195201652089398</v>
+      </c>
+      <c r="P5" s="6">
+        <v>21.463852445740098</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6">
+        <v>27.224489795918299</v>
+      </c>
+      <c r="E6" s="6">
+        <v>48.673469387755098</v>
+      </c>
+      <c r="F6" s="6">
+        <v>73.265306122448905</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2.41832321428571E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.8180936236637501E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3.0068909855847099E-2</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="6">
+        <v>46.331462585033997</v>
+      </c>
+      <c r="O6" s="6">
+        <v>30.6395529640427</v>
+      </c>
+      <c r="P6" s="6">
+        <v>23.352389050858399</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18.775510204081598</v>
+      </c>
+      <c r="E7" s="6">
+        <v>36.836734693877496</v>
+      </c>
+      <c r="F7" s="6">
+        <v>64.183673469387699</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.21663603741496E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.9289712755102001E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3.0621490678652399E-2</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6">
+        <v>52.823469387755097</v>
+      </c>
+      <c r="O7" s="6">
+        <v>37.682482993197198</v>
+      </c>
+      <c r="P7" s="6">
+        <v>24.2013119533527</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>27.122448979591802</v>
+      </c>
+      <c r="E8" s="6">
+        <v>47.224489795918302</v>
+      </c>
+      <c r="F8" s="6">
+        <v>73.040816326530603</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.38729775510204E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.7204020274538301E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3.0310294744088102E-2</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="6">
+        <v>48.236564625850299</v>
+      </c>
+      <c r="O8" s="6">
+        <v>32.933272594752097</v>
+      </c>
+      <c r="P8" s="6">
+        <v>24.1860868156786</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>17.653061224489701</v>
+      </c>
+      <c r="E9" s="6">
+        <v>34.183673469387699</v>
+      </c>
+      <c r="F9" s="6">
+        <v>62.755102040816304</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2.04668969387755E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.8689339455782299E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3.07001531867509E-2</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6">
+        <v>54.6100340136054</v>
+      </c>
+      <c r="O9" s="6">
+        <v>40.157482993197199</v>
+      </c>
+      <c r="P9" s="6">
+        <v>24.980365241334599</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D4-D20</f>
+        <v>3.7847866419295038</v>
+      </c>
+      <c r="E11" s="5">
+        <f>E4-E20</f>
+        <v>1.4873222016080092</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F4-F20</f>
+        <v>1.3440527726242095</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11:K11" si="0">I4-I20</f>
+        <v>-4.4435895127169917E-4</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0603804707670014E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0711249811849898E-4</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:P11" si="1">N4-N20</f>
+        <v>2.6781166867901973</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9015377290887976</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37926908377590252</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <f>D6-D22</f>
+        <v>2.2749948464234002</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:F12" si="2">E6-E22</f>
+        <v>2.6633683776540948</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9016697588126164</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <f>I6-I22</f>
+        <v>1.830641991341999E-3</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ref="I12:K12" si="3">J6-J22</f>
+        <v>-7.3583481915849916E-4</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9846286811269973E-4</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <f t="shared" ref="N12:P12" si="4">N6-N22</f>
+        <v>7.7529272314986954</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="4"/>
+        <v>2.8406352151250012</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0499920651280981</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D8-D24</f>
+        <v>2.8295196866625005</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:F13" si="5">E8-E24</f>
+        <v>2.0729746444032031</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1721294578437949</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:K13" si="6">I8-I24</f>
+        <v>1.0728730897409978E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.5807973748670091E-4</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.1734546836997427E-5</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13:P13" si="7">N8-N24</f>
+        <v>8.9091235484092977</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>4.8843187707982985</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0111990491242011</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <f>D5-D20</f>
+        <v>-6.1131725417438965</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ref="E14:F14" si="8">E5-E20</f>
+        <v>-8.1045145330859896</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.5947227375799002</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14:K14" si="9">I5-I20</f>
+        <v>-2.0645533876176014E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="9"/>
+        <v>1.0338360789627007E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="9"/>
+        <v>7.9221715069379903E-4</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" ref="N14:P14" si="10">N5-N20</f>
+        <v>10.776877619734798</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="10"/>
+        <v>5.3256549950427967</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7716727118937996</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5">
+        <f>D7-D22</f>
+        <v>-6.1739847454132999</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:F15" si="11">E7-E22</f>
+        <v>-9.1733663162235075</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>-7.1799628942485896</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15:K15" si="12">I7-I22</f>
+        <v>-1.8622977736550139E-4</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="12"/>
+        <v>3.7294169930600016E-4</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="12"/>
+        <v>7.5104369091799975E-4</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15:P15" si="13">N7-N22</f>
+        <v>14.244934034219796</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="13"/>
+        <v>9.8835652442794988</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8989149676223995</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D9-D24</f>
+        <v>-6.6398680684396005</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:F16" si="14">E9-E24</f>
+        <v>-10.9678416821274</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="14"/>
+        <v>-9.1135848278705041</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <f t="shared" ref="I16:K16" si="15">I9-I24</f>
+        <v>-2.3332075225039016E-3</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="15"/>
+        <v>1.1272394437572969E-3</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="15"/>
+        <v>3.4812389582580122E-4</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <f t="shared" ref="N16:P16" si="16">N9-N24</f>
+        <v>15.282592936164399</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="16"/>
+        <v>12.108529169243401</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="16"/>
+        <v>3.8054774747802007</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="18" thickBot="1"/>
+    <row r="18" spans="3:16">
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="10"/>
+      <c r="D19" s="5">
+        <v>200</v>
+      </c>
+      <c r="E19" s="5">
+        <v>300</v>
+      </c>
+      <c r="F19" s="5">
+        <v>400</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>200</v>
+      </c>
+      <c r="J19" s="5">
+        <v>300</v>
+      </c>
+      <c r="K19" s="5">
+        <v>400</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <v>200</v>
+      </c>
+      <c r="O19" s="5">
+        <v>300</v>
+      </c>
+      <c r="P19" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30.909090909090796</v>
+      </c>
+      <c r="E20" s="5">
+        <v>55.757575757575694</v>
+      </c>
+      <c r="F20" s="5">
+        <v>81.717171717171695</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2.56403846801346E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2.8083191690716599E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2.9729760529902199E-2</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="5">
+        <v>34.04234006734</v>
+      </c>
+      <c r="O20" s="5">
+        <v>24.869546657046602</v>
+      </c>
+      <c r="P20" s="11">
+        <v>19.692179733846299</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>54.416243654822303</v>
+      </c>
+      <c r="F21" s="5">
+        <v>78.121827411167502</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2.4925469929900902E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.8694854667230599E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2.95763923495286E-2</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="5">
+        <v>32.510357747159702</v>
+      </c>
+      <c r="O21" s="5">
+        <v>24.780992667794699</v>
+      </c>
+      <c r="P21" s="11">
+        <v>19.220264281685601</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
+        <v>24.949494949494898</v>
+      </c>
+      <c r="E22" s="5">
+        <v>46.010101010101003</v>
+      </c>
+      <c r="F22" s="5">
+        <v>71.363636363636289</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.2352590151515101E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2.8916771055796001E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2.98704469877344E-2</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="5">
+        <v>38.578535353535301</v>
+      </c>
+      <c r="O22" s="5">
+        <v>27.798917748917699</v>
+      </c>
+      <c r="P22" s="11">
+        <v>21.302396985730301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>23.350253807106501</v>
+      </c>
+      <c r="E23" s="5">
+        <v>43.451776649746201</v>
+      </c>
+      <c r="F23" s="5">
+        <v>67.664974619289296</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.43845462774957E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2.8371260611554198E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2.9459409026267001E-2</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5">
+        <v>40.293570219966099</v>
+      </c>
+      <c r="O23" s="5">
+        <v>30.0993956973652</v>
+      </c>
+      <c r="P23" s="11">
+        <v>21.551573201192401</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5">
+        <v>24.292929292929301</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45.151515151515099</v>
+      </c>
+      <c r="F24" s="5">
+        <v>71.868686868686808</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2.2800104461279402E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2.7562100012025002E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3.0352029290925099E-2</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="5">
+        <v>39.327441077441001</v>
+      </c>
+      <c r="O24" s="5">
+        <v>28.048953823953799</v>
+      </c>
+      <c r="P24" s="11">
+        <v>21.174887766554399</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="18" thickBot="1">
+      <c r="C25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13">
+        <v>22.639593908629401</v>
+      </c>
+      <c r="E25" s="13">
+        <v>41.624365482233401</v>
+      </c>
+      <c r="F25" s="13">
+        <v>66.192893401015198</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="13">
+        <v>2.4144564805414499E-2</v>
+      </c>
+      <c r="J25" s="13">
+        <v>2.7608062666183202E-2</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2.9579379826363699E-2</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="13">
+        <v>41.917089678510997</v>
+      </c>
+      <c r="O25" s="13">
+        <v>31.3887781000725</v>
+      </c>
+      <c r="P25" s="14">
+        <v>22.1048847796309</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14716,7 +17480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D8FEA1-3BF4-4F89-9703-12B29B4D8799}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>

--- a/修士論文/master_evaluation.xlsx
+++ b/修士論文/master_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\Latex\修士論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C471F-D4F8-439D-B3F8-CE5E4468C404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608CAB33-A393-4578-80F3-A0D38EF4EC08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27751,7 +27751,7 @@
   <dimension ref="E4:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D3" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>

--- a/修士論文/master_evaluation.xlsx
+++ b/修士論文/master_evaluation.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\Latex\修士論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608CAB33-A393-4578-80F3-A0D38EF4EC08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745349D5-A6B5-42D6-AE83-0F6924BDDB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGO vs LSGO" sheetId="1" r:id="rId1"/>
-    <sheet name="recovery strategy" sheetId="2" r:id="rId2"/>
-    <sheet name="geocast" sheetId="3" r:id="rId3"/>
-    <sheet name="RCS" sheetId="4" r:id="rId4"/>
-    <sheet name="LSGO vs shadowing" sheetId="5" r:id="rId5"/>
+    <sheet name="geocast" sheetId="3" r:id="rId2"/>
+    <sheet name="RCS" sheetId="4" r:id="rId3"/>
+    <sheet name="LSGO vs shadowing" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>PDR</t>
     <phoneticPr fontId="2"/>
@@ -152,54 +151,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SIGO + ORS(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SIGO + JBR(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SIGO + ORS(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SIGO + JBR(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SIGO + ORS(30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SIGO + JBR(30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ORS - SIGO(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ORS - SIGO(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ORS - SIGO(30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JBR - SIGO(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JBR - SIGO(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JBR - SIGO(30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SIGO -LSGO (10)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -296,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,131 +339,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,18 +361,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,509 +1065,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14886614173228346"/>
-          <c:y val="5.4236293379994166E-2"/>
-          <c:w val="0.82057830271216103"/>
-          <c:h val="0.64352252843394564"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>geocast!$R$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GSIGO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="94000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>geocast!$S$16:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>geocast!$S$17:$U$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>70.224489999999989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.989891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.641017999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0DA-4CB7-912D-6B4CFA7BA3BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>geocast!$R$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GLSGO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>geocast!$S$16:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>geocast!$S$18:$U$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>80.723355999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.494996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.936486000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0DA-4CB7-912D-6B4CFA7BA3BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1122321887"/>
-        <c:axId val="1122328959"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1122321887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>シャドウイングパラメータ</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1122328959"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1122328959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="85"/>
-          <c:min val="45"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>パケット到達率</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-                  <a:t>(%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1122321887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.13138813081351403"/>
           <c:y val="4.8199699231751589E-2"/>
           <c:w val="0.8349014260739599"/>
@@ -2232,7 +1551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2628,7 +1947,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3021,7 +2340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3402,7 +2721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3784,7 +3103,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4296,7 +3615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4810,7 +4129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8655,844 +7974,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10535528631465235"/>
-          <c:y val="2.9729721715759203E-2"/>
-          <c:w val="0.87675189622462879"/>
-          <c:h val="0.74300496253275949"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + ORS(10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>34.6938775510203</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.244897959183703</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.061224489795904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + JBR(10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>24.7959183673469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.653061224489704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76.122448979591795</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + ORS(20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>27.224489795918299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.673469387755098</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.265306122448905</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + JBR(20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:prstDash val="dashDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.775510204081598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.836734693877496</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64.183673469387699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + ORS(30)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>27.122448979591802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.224489795918302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.040816326530603</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recovery strategy'!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIGO + JBR(30)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="lgDashDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recovery strategy'!$D$9:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.653061224489701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.183673469387699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.755102040816304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B9BB-48BD-ACE0-98732C9B2739}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="441313488"/>
-        <c:axId val="428493760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="441313488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-                  <a:t>ノード数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="428493760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="428493760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="15"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>パケット到達率</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>(%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.4283075726645273E-3"/>
-              <c:y val="0.32414967639177533"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="441313488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.14886614173228346"/>
           <c:y val="5.4236293379994166E-2"/>
           <c:w val="0.82057830271216103"/>
@@ -9975,7 +8456,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10343,6 +8824,509 @@
                   <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
                   <a:t>オーバーヘッド</a:t>
                 </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122321887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14886614173228346"/>
+          <c:y val="5.4236293379994166E-2"/>
+          <c:w val="0.82057830271216103"/>
+          <c:h val="0.64352252843394564"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>geocast!$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GSIGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="94000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>geocast!$S$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>geocast!$S$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70.224489999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.989891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.641017999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0DA-4CB7-912D-6B4CFA7BA3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>geocast!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GLSGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>geocast!$S$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>geocast!$S$18:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.723355999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.494996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.936486000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0DA-4CB7-912D-6B4CFA7BA3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1122321887"/>
+        <c:axId val="1122328959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1122321887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>シャドウイングパラメータ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122328959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122328959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>パケット到達率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10841,46 +9825,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12234,7 +11178,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12342,11 +11286,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12357,11 +11296,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12393,9 +11327,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14259,7 +13190,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15767,8 +14698,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15876,6 +14807,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15886,6 +14822,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -15917,6 +14858,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16270,7 +15214,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16786,7 +15730,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17302,7 +16246,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17818,7 +16762,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18334,7 +17278,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18497,509 +17441,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20610,47 +19051,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19153</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>62256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22329</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>188428</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0C90A6-A409-45EB-BFE3-12F2E8A41FAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>427482</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -20796,7 +19196,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20945,7 +19345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23587,258 +21987,6 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride18.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4472C4"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="Yu Gothic Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="Yu Gothic"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
@@ -26140,7 +24288,7 @@
     </row>
     <row r="15" spans="4:17">
       <c r="D15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <f>E7-E8</f>
@@ -26181,7 +24329,7 @@
     </row>
     <row r="16" spans="4:17">
       <c r="D16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <f>E9-E10</f>
@@ -26222,7 +24370,7 @@
     </row>
     <row r="17" spans="4:17">
       <c r="D17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <f>E11-E12</f>
@@ -26264,7 +24412,7 @@
     <row r="19" spans="4:17" ht="18" thickBot="1"/>
     <row r="20" spans="4:17">
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -26289,7 +24437,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -26300,7 +24448,7 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="4:17">
       <c r="D22" s="8"/>
@@ -26332,7 +24480,7 @@
       <c r="P22" s="4">
         <v>300</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="12">
         <v>400</v>
       </c>
     </row>
@@ -26378,7 +24526,7 @@
     </row>
     <row r="24" spans="4:17">
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2">
         <v>22.040816326530599</v>
@@ -26391,7 +24539,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2">
         <v>2.44591275510204E-2</v>
@@ -26404,7 +24552,7 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2">
         <v>42.320578231292501</v>
@@ -26513,11 +24661,11 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="4:17">
       <c r="D28" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -26531,7 +24679,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="4:17">
       <c r="D29" s="8" t="s">
@@ -26542,18 +24690,18 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="4:17">
       <c r="D30" s="8"/>
@@ -26585,7 +24733,7 @@
       <c r="P30" s="4">
         <v>20</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="12">
         <v>30</v>
       </c>
     </row>
@@ -26753,10 +24901,10 @@
       </c>
     </row>
     <row r="40" spans="4:17">
-      <c r="M40" s="12"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="4:17">
-      <c r="M41" s="12"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="45" spans="4:17">
       <c r="E45" s="2">
@@ -26867,898 +25015,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3121880C-5E42-4C45-852C-C2090C83CA7B}">
-  <dimension ref="C2:P25"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="46" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <cols>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="6" width="9.0625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="10" width="9.0625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="16" width="9.0625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:16" ht="18" thickBot="1">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:16">
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>200</v>
-      </c>
-      <c r="E3" s="6">
-        <v>300</v>
-      </c>
-      <c r="F3" s="6">
-        <v>400</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6">
-        <v>300</v>
-      </c>
-      <c r="K3" s="6">
-        <v>400</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6">
-        <v>200</v>
-      </c>
-      <c r="O3" s="6">
-        <v>300</v>
-      </c>
-      <c r="P3" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16">
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12">
-        <v>34.6938775510203</v>
-      </c>
-      <c r="E4" s="12">
-        <v>57.244897959183703</v>
-      </c>
-      <c r="F4" s="12">
-        <v>83.061224489795904</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="12">
-        <v>2.5196025728862901E-2</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2.91435721614836E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>3.0136873028020698E-2</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="12">
-        <v>36.720456754130197</v>
-      </c>
-      <c r="O4" s="12">
-        <v>27.771084386135399</v>
-      </c>
-      <c r="P4" s="12">
-        <v>20.071448817622201</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16">
-      <c r="C5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12">
-        <v>24.7959183673469</v>
-      </c>
-      <c r="E5" s="12">
-        <v>47.653061224489704</v>
-      </c>
-      <c r="F5" s="12">
-        <v>76.122448979591795</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12">
-        <v>2.3575831292516999E-2</v>
-      </c>
-      <c r="J5" s="12">
-        <v>2.91170277696793E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <v>3.0521977680595998E-2</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="12">
-        <v>44.819217687074797</v>
-      </c>
-      <c r="O5" s="12">
-        <v>30.195201652089398</v>
-      </c>
-      <c r="P5" s="12">
-        <v>21.463852445740098</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16">
-      <c r="C6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12">
-        <v>27.224489795918299</v>
-      </c>
-      <c r="E6" s="12">
-        <v>48.673469387755098</v>
-      </c>
-      <c r="F6" s="12">
-        <v>73.265306122448905</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="12">
-        <v>2.41832321428571E-2</v>
-      </c>
-      <c r="J6" s="12">
-        <v>2.8180936236637501E-2</v>
-      </c>
-      <c r="K6" s="12">
-        <v>3.0068909855847099E-2</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="12">
-        <v>46.331462585033997</v>
-      </c>
-      <c r="O6" s="12">
-        <v>30.6395529640427</v>
-      </c>
-      <c r="P6" s="12">
-        <v>23.352389050858399</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16">
-      <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="12">
-        <v>18.775510204081598</v>
-      </c>
-      <c r="E7" s="12">
-        <v>36.836734693877496</v>
-      </c>
-      <c r="F7" s="12">
-        <v>64.183673469387699</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2.21663603741496E-2</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2.9289712755102001E-2</v>
-      </c>
-      <c r="K7" s="12">
-        <v>3.0621490678652399E-2</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="12">
-        <v>52.823469387755097</v>
-      </c>
-      <c r="O7" s="12">
-        <v>37.682482993197198</v>
-      </c>
-      <c r="P7" s="12">
-        <v>24.2013119533527</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12">
-        <v>27.122448979591802</v>
-      </c>
-      <c r="E8" s="12">
-        <v>47.224489795918302</v>
-      </c>
-      <c r="F8" s="12">
-        <v>73.040816326530603</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.38729775510204E-2</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2.7204020274538301E-2</v>
-      </c>
-      <c r="K8" s="12">
-        <v>3.0310294744088102E-2</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="12">
-        <v>48.236564625850299</v>
-      </c>
-      <c r="O8" s="12">
-        <v>32.933272594752097</v>
-      </c>
-      <c r="P8" s="12">
-        <v>24.1860868156786</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16">
-      <c r="C9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12">
-        <v>17.653061224489701</v>
-      </c>
-      <c r="E9" s="12">
-        <v>34.183673469387699</v>
-      </c>
-      <c r="F9" s="12">
-        <v>62.755102040816304</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="12">
-        <v>2.04668969387755E-2</v>
-      </c>
-      <c r="J9" s="12">
-        <v>2.8689339455782299E-2</v>
-      </c>
-      <c r="K9" s="12">
-        <v>3.07001531867509E-2</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="12">
-        <v>54.6100340136054</v>
-      </c>
-      <c r="O9" s="12">
-        <v>40.157482993197199</v>
-      </c>
-      <c r="P9" s="12">
-        <v>24.980365241334599</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16">
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D4-D20</f>
-        <v>3.7847866419295038</v>
-      </c>
-      <c r="E11" s="11">
-        <f>E4-E20</f>
-        <v>1.4873222016080092</v>
-      </c>
-      <c r="F11" s="11">
-        <f>F4-F20</f>
-        <v>1.3440527726242095</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
-        <f t="shared" ref="I11:K11" si="0">I4-I20</f>
-        <v>-4.4435895127169917E-4</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0603804707670014E-3</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" si="0"/>
-        <v>4.0711249811849898E-4</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11:P11" si="1">N4-N20</f>
-        <v>2.6781166867901973</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="1"/>
-        <v>2.9015377290887976</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.37926908377590252</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11">
-        <f>D6-D22</f>
-        <v>2.2749948464234002</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" ref="E12:F12" si="2">E6-E22</f>
-        <v>2.6633683776540948</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="2"/>
-        <v>1.9016697588126164</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <f>I6-I22</f>
-        <v>1.830641991341999E-3</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" ref="J12:K12" si="3">J6-J22</f>
-        <v>-7.3583481915849916E-4</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" si="3"/>
-        <v>1.9846286811269973E-4</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <f t="shared" ref="N12:P12" si="4">N6-N22</f>
-        <v>7.7529272314986954</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="4"/>
-        <v>2.8406352151250012</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="4"/>
-        <v>2.0499920651280981</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16">
-      <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D8-D24</f>
-        <v>2.8295196866625005</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" ref="E13:F13" si="5">E8-E24</f>
-        <v>2.0729746444032031</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="5"/>
-        <v>1.1721294578437949</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
-        <f t="shared" ref="I13:K13" si="6">I8-I24</f>
-        <v>1.0728730897409978E-3</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="6"/>
-        <v>-3.5807973748670091E-4</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="6"/>
-        <v>-4.1734546836997427E-5</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11">
-        <f t="shared" ref="N13:P13" si="7">N8-N24</f>
-        <v>8.9091235484092977</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="7"/>
-        <v>4.8843187707982985</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="7"/>
-        <v>3.0111990491242011</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="C14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11">
-        <f>D5-D20</f>
-        <v>-6.1131725417438965</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" ref="E14:F14" si="8">E5-E20</f>
-        <v>-8.1045145330859896</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="8"/>
-        <v>-5.5947227375799002</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
-        <f t="shared" ref="I14:K14" si="9">I5-I20</f>
-        <v>-2.0645533876176014E-3</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="9"/>
-        <v>1.0338360789627007E-3</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="9"/>
-        <v>7.9221715069379903E-4</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
-        <f t="shared" ref="N14:P14" si="10">N5-N20</f>
-        <v>10.776877619734798</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="10"/>
-        <v>5.3256549950427967</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="10"/>
-        <v>1.7716727118937996</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16">
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11">
-        <f>D7-D22</f>
-        <v>-6.1739847454132999</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" ref="E15:F15" si="11">E7-E22</f>
-        <v>-9.1733663162235075</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="11"/>
-        <v>-7.1799628942485896</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
-        <f t="shared" ref="I15:K15" si="12">I7-I22</f>
-        <v>-1.8622977736550139E-4</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="12"/>
-        <v>3.7294169930600016E-4</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="12"/>
-        <v>7.5104369091799975E-4</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11">
-        <f t="shared" ref="N15:P15" si="13">N7-N22</f>
-        <v>14.244934034219796</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="13"/>
-        <v>9.8835652442794988</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="13"/>
-        <v>2.8989149676223995</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16">
-      <c r="C16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="11">
-        <f>D9-D24</f>
-        <v>-6.6398680684396005</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" ref="E16:F16" si="14">E9-E24</f>
-        <v>-10.9678416821274</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="14"/>
-        <v>-9.1135848278705041</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <f t="shared" ref="I16:K16" si="15">I9-I24</f>
-        <v>-2.3332075225039016E-3</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="15"/>
-        <v>1.1272394437572969E-3</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="15"/>
-        <v>3.4812389582580122E-4</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16:P16" si="16">N9-N24</f>
-        <v>15.282592936164399</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="16"/>
-        <v>12.108529169243401</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" si="16"/>
-        <v>3.8054774747802007</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" ht="18" thickBot="1"/>
-    <row r="18" spans="3:16">
-      <c r="C18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="C19" s="16"/>
-      <c r="D19" s="11">
-        <v>200</v>
-      </c>
-      <c r="E19" s="11">
-        <v>300</v>
-      </c>
-      <c r="F19" s="11">
-        <v>400</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
-        <v>200</v>
-      </c>
-      <c r="J19" s="11">
-        <v>300</v>
-      </c>
-      <c r="K19" s="11">
-        <v>400</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11">
-        <v>200</v>
-      </c>
-      <c r="O19" s="11">
-        <v>300</v>
-      </c>
-      <c r="P19" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="C20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11">
-        <v>30.909090909090796</v>
-      </c>
-      <c r="E20" s="11">
-        <v>55.757575757575694</v>
-      </c>
-      <c r="F20" s="11">
-        <v>81.717171717171695</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="11">
-        <v>2.56403846801346E-2</v>
-      </c>
-      <c r="J20" s="11">
-        <v>2.8083191690716599E-2</v>
-      </c>
-      <c r="K20" s="11">
-        <v>2.9729760529902199E-2</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="11">
-        <v>34.04234006734</v>
-      </c>
-      <c r="O20" s="11">
-        <v>24.869546657046602</v>
-      </c>
-      <c r="P20" s="17">
-        <v>19.692179733846299</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
-      <c r="C21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11">
-        <v>30</v>
-      </c>
-      <c r="E21" s="11">
-        <v>54.416243654822303</v>
-      </c>
-      <c r="F21" s="11">
-        <v>78.121827411167502</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2.4925469929900902E-2</v>
-      </c>
-      <c r="J21" s="11">
-        <v>2.8694854667230599E-2</v>
-      </c>
-      <c r="K21" s="11">
-        <v>2.95763923495286E-2</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="11">
-        <v>32.510357747159702</v>
-      </c>
-      <c r="O21" s="11">
-        <v>24.780992667794699</v>
-      </c>
-      <c r="P21" s="17">
-        <v>19.220264281685601</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
-      <c r="C22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
-        <v>24.949494949494898</v>
-      </c>
-      <c r="E22" s="11">
-        <v>46.010101010101003</v>
-      </c>
-      <c r="F22" s="11">
-        <v>71.363636363636289</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2.2352590151515101E-2</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2.8916771055796001E-2</v>
-      </c>
-      <c r="K22" s="11">
-        <v>2.98704469877344E-2</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="11">
-        <v>38.578535353535301</v>
-      </c>
-      <c r="O22" s="11">
-        <v>27.798917748917699</v>
-      </c>
-      <c r="P22" s="17">
-        <v>21.302396985730301</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="C23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="11">
-        <v>23.350253807106501</v>
-      </c>
-      <c r="E23" s="11">
-        <v>43.451776649746201</v>
-      </c>
-      <c r="F23" s="11">
-        <v>67.664974619289296</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="11">
-        <v>2.43845462774957E-2</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2.8371260611554198E-2</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2.9459409026267001E-2</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="11">
-        <v>40.293570219966099</v>
-      </c>
-      <c r="O23" s="11">
-        <v>30.0993956973652</v>
-      </c>
-      <c r="P23" s="17">
-        <v>21.551573201192401</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="C24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11">
-        <v>24.292929292929301</v>
-      </c>
-      <c r="E24" s="11">
-        <v>45.151515151515099</v>
-      </c>
-      <c r="F24" s="11">
-        <v>71.868686868686808</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2.2800104461279402E-2</v>
-      </c>
-      <c r="J24" s="11">
-        <v>2.7562100012025002E-2</v>
-      </c>
-      <c r="K24" s="11">
-        <v>3.0352029290925099E-2</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="11">
-        <v>39.327441077441001</v>
-      </c>
-      <c r="O24" s="11">
-        <v>28.048953823953799</v>
-      </c>
-      <c r="P24" s="17">
-        <v>21.174887766554399</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" ht="18" thickBot="1">
-      <c r="C25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="19">
-        <v>22.639593908629401</v>
-      </c>
-      <c r="E25" s="19">
-        <v>41.624365482233401</v>
-      </c>
-      <c r="F25" s="19">
-        <v>66.192893401015198</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="19">
-        <v>2.4144564805414499E-2</v>
-      </c>
-      <c r="J25" s="19">
-        <v>2.7608062666183202E-2</v>
-      </c>
-      <c r="K25" s="19">
-        <v>2.9579379826363699E-2</v>
-      </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="19">
-        <v>41.917089678510997</v>
-      </c>
-      <c r="O25" s="19">
-        <v>31.3887781000725</v>
-      </c>
-      <c r="P25" s="20">
-        <v>22.1048847796309</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D8FEA1-3BF4-4F89-9703-12B29B4D8799}">
   <dimension ref="E4:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="D3" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="4" spans="5:26">
       <c r="R4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="5:26">
@@ -27794,7 +25062,7 @@
     </row>
     <row r="8" spans="5:26">
       <c r="E8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -27824,7 +25092,7 @@
         <v>400</v>
       </c>
       <c r="R8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="S8">
         <v>36.624251999999998</v>
@@ -27836,7 +25104,7 @@
         <v>80.723355999999995</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X8">
         <v>3.3515318000000001</v>
@@ -27850,7 +25118,7 @@
     </row>
     <row r="9" spans="5:26">
       <c r="E9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -27880,7 +25148,7 @@
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S9">
         <v>32.567938000000005</v>
@@ -27892,7 +25160,7 @@
         <v>70.224489999999989</v>
       </c>
       <c r="W9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="X9">
         <v>3.1936192399999999</v>
@@ -27906,7 +25174,7 @@
     </row>
     <row r="10" spans="5:26">
       <c r="E10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>32.567938000000005</v>
@@ -27962,7 +25230,7 @@
     </row>
     <row r="11" spans="5:26">
       <c r="E11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>36.624251999999998</v>
@@ -28032,7 +25300,7 @@
     </row>
     <row r="13" spans="5:26">
       <c r="R13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="5:26">
@@ -28068,7 +25336,7 @@
     </row>
     <row r="17" spans="5:26">
       <c r="E17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>200</v>
@@ -28098,7 +25366,7 @@
         <v>400</v>
       </c>
       <c r="R17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="S17">
         <v>70.224489999999989</v>
@@ -28110,7 +25378,7 @@
         <v>55.641017999999995</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X17">
         <v>2.3705187900000002</v>
@@ -28124,7 +25392,7 @@
     </row>
     <row r="18" spans="5:26">
       <c r="E18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -28154,7 +25422,7 @@
         <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S18">
         <v>80.723355999999995</v>
@@ -28166,7 +25434,7 @@
         <v>62.936486000000002</v>
       </c>
       <c r="W18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="X18">
         <v>2.3621986599999998</v>
@@ -28180,7 +25448,7 @@
     </row>
     <row r="19" spans="5:26">
       <c r="E19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>3.0603638399999999</v>
@@ -28236,7 +25504,7 @@
     </row>
     <row r="20" spans="5:26">
       <c r="E20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>1.65919694</v>
@@ -28388,12 +25656,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203A2B20-CFAC-47ED-9B81-EA8B8F0E147A}">
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -28546,12 +25814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02DE1FB-9480-4B0B-B737-CBC9E45D46C4}">
   <dimension ref="C1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
